--- a/sheet/cardset_s9.xlsx
+++ b/sheet/cardset_s9.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">一覧表示名（英語）</t>
   </si>
   <si>
-    <t xml:space="preserve">Na-s9</t>
+    <t xml:space="preserve">na-s9</t>
   </si>
   <si>
     <t xml:space="preserve">12</t>
@@ -62,7 +62,7 @@
     <t xml:space="preserve">新幕 シーズン9</t>
   </si>
   <si>
-    <t xml:space="preserve">新幕 シーズン9 (2022/11/11～ 『新劇拡張：神座桜縁起 前篇』以降)</t>
+    <t xml:space="preserve">新幕 シーズン9 (2023/12/12～ 『新劇拡張：神座桜縁起 後篇』以降)</t>
   </si>
   <si>
     <r>
@@ -97,7 +97,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">新幕 赛季9（2022/11/11～『新剧扩展：神座樱缘起 後篇』之后）</t>
+    <t xml:space="preserve">新幕 赛季9（2023/12/12～『新剧扩展：神座樱缘起 後篇』之后）</t>
   </si>
   <si>
     <r>
@@ -142,7 +142,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">신막 시즌9 (2022/11/11～ 『제8확장：신좌앵연기 후편』이후)</t>
+    <t xml:space="preserve">신막 시즌9 (2023/12/12～ 『제8확장：신좌앵연기 후편』이후)</t>
   </si>
   <si>
     <t xml:space="preserve">Shinmaku Season 9</t>
@@ -298,7 +298,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -321,10 +321,6 @@
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -363,11 +359,11 @@
   <dimension ref="A1:W939"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -429,7 +425,7 @@
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -442,25 +438,25 @@
       <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="9" t="str">
-        <f aca="false">"'"&amp;A2&amp;"': { seasonNumber: "&amp;B2&amp;", name: { name: '"&amp;C2&amp;"', listName: '"&amp;D2&amp;"', nameZh: '"&amp;E2&amp;"', listNameZh: '"&amp;F2&amp;"',nameKo: '"&amp;G2&amp;"', listNameKo: '"&amp;H2&amp;"',nameEn: '"&amp;I2&amp;"', listNameEn: '"&amp;J2&amp;"'},"</f>
-        <v>'Na-s9': { seasonNumber: 12, name: { name: '新幕 シーズン9', listName: '新幕 シーズン9 (2022/11/11～ 『新劇拡張：神座桜縁起 前篇』以降)', nameZh: '新幕 赛季9', listNameZh: '新幕 赛季9（2022/11/11～『新剧扩展：神座樱缘起 後篇』之后）',nameKo: '신막 시즌9', listNameKo: '신막 시즌9 (2022/11/11～ 『제8확장：신좌앵연기 후편』이후)',nameEn: 'Shinmaku Season 9', listNameEn: ''},</v>
+      <c r="J2" s="6"/>
+      <c r="K2" s="8" t="str">
+        <f aca="false">"'"&amp;A2&amp;"': { seasonNumber: "&amp;B2&amp;", name: '"&amp;C2&amp;"', listName: '"&amp;D2&amp;"', nameZh: '"&amp;E2&amp;"', listNameZh: '"&amp;F2&amp;"',nameKo: '"&amp;G2&amp;"', listNameKo: '"&amp;H2&amp;"',nameEn: '"&amp;I2&amp;"', listNameEn: '"&amp;J2&amp;"'},"</f>
+        <v>'na-s9': { seasonNumber: 12, name: '新幕 シーズン9', listName: '新幕 シーズン9 (2023/12/12～ 『新劇拡張：神座桜縁起 後篇』以降)', nameZh: '新幕 赛季9', listNameZh: '新幕 赛季9（2023/12/12～『新剧扩展：神座樱缘起 後篇』之后）',nameKo: '신막 시즌9', listNameKo: '신막 시즌9 (2023/12/12～ 『제8확장：신좌앵연기 후편』이후)',nameEn: 'Shinmaku Season 9', listNameEn: ''},</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -8903,7 +8899,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="K2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
